--- a/Data_S3.xlsx
+++ b/Data_S3.xlsx
@@ -1773,13 +1773,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1805,34 +1799,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1853,12 +1820,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1871,12 +1832,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1887,6 +1842,51 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -1927,7 +1927,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2001,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="esupp new graphic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2075,7 @@
         <xdr:cNvPr id="4" name="Object 5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,14 +2394,14 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="8"/>
-    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="8"/>
+    <col min="1" max="2" width="10.85546875" style="6"/>
+    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2452,32 +2452,32 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -2495,114 +2495,114 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="9">
-        <v>43970</v>
+      <c r="C12" s="7">
+        <v>43978</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2620,776 +2620,774 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="33" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="33" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="13" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -3411,3074 +3409,3074 @@
   <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="16" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="30" t="s">
+      <c r="D28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="D32" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="30" t="s">
+      <c r="D33" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="30" t="s">
+      <c r="D34" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="30" t="s">
+      <c r="D35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="D36" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="30" t="s">
+      <c r="D37" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="30" t="s">
+      <c r="D40" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="30" t="s">
+      <c r="D41" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E42" s="30" t="s">
+      <c r="D42" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E43" s="30" t="s">
+      <c r="D43" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="30" t="s">
+      <c r="D44" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="34" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="34" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="34" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="34" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="34" t="s">
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="34" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="34" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34" t="s">
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34" t="s">
+      <c r="A76" s="35"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34" t="s">
+      <c r="A77" s="35"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34" t="s">
+      <c r="A78" s="35"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34" t="s">
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="34" t="s">
+      <c r="A81" s="35"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34" t="s">
+      <c r="A82" s="35"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34" t="s">
+      <c r="A83" s="35"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34" t="s">
+      <c r="A84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="32"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="34" t="s">
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="34" t="s">
+      <c r="A87" s="35"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="34" t="s">
+      <c r="A88" s="35"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="34" t="s">
+      <c r="A89" s="35"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="34" t="s">
+      <c r="A90" s="35"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="34" t="s">
+      <c r="A91" s="35"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="34" t="s">
+      <c r="A92" s="35"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="34" t="s">
+      <c r="A93" s="35"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="34" t="s">
+      <c r="A94" s="35"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="34" t="s">
+      <c r="A95" s="35"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="34" t="s">
+      <c r="A96" s="35"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E96" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="34" t="s">
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="34" t="s">
+      <c r="A98" s="35"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="34" t="s">
+      <c r="A99" s="35"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="34" t="s">
+      <c r="A100" s="35"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="34" t="s">
+      <c r="A101" s="35"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="34" t="s">
+      <c r="A102" s="35"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="32"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="34" t="s">
+      <c r="A103" s="35"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="34" t="s">
+      <c r="A104" s="35"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="32"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="34" t="s">
+      <c r="A105" s="35"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="32"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="34" t="s">
+      <c r="A106" s="35"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="32"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="34" t="s">
+      <c r="A107" s="35"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="32"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="34" t="s">
+      <c r="A108" s="35"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="32"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="34" t="s">
+      <c r="A109" s="35"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="34" t="s">
+      <c r="A110" s="35"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="34" t="s">
+      <c r="A111" s="35"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="34" t="s">
+      <c r="A112" s="35"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="34" t="s">
+      <c r="A113" s="35"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="32"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="34" t="s">
+      <c r="A114" s="35"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="32"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="34" t="s">
+      <c r="A115" s="35"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="34" t="s">
+      <c r="A116" s="35"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="32"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="34" t="s">
+      <c r="A117" s="35"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="32"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="34" t="s">
+      <c r="A118" s="35"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="34" t="s">
+      <c r="A119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="32"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="34" t="s">
+      <c r="A120" s="35"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="32"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="34" t="s">
+      <c r="A121" s="35"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="32"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="34" t="s">
+      <c r="A122" s="35"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="32"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="34" t="s">
+      <c r="A123" s="35"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="32"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="34" t="s">
+      <c r="A124" s="35"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="32"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="34" t="s">
+      <c r="A125" s="35"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E126" s="30" t="s">
+      <c r="D126" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="32"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="34" t="s">
+      <c r="A127" s="35"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E127" s="30" t="s">
+      <c r="D127" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="32"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="34" t="s">
+      <c r="A128" s="35"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D128" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E128" s="30" t="s">
+      <c r="D128" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="32"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="34" t="s">
+      <c r="A129" s="35"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E129" s="30" t="s">
+      <c r="D129" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="32"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="34" t="s">
+      <c r="A130" s="35"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D130" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E130" s="30" t="s">
+      <c r="D130" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E130" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="32"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="34" t="s">
+      <c r="A131" s="35"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D131" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" s="30" t="s">
+      <c r="D131" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="32"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="34" t="s">
+      <c r="A132" s="35"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D132" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E132" s="30" t="s">
+      <c r="D132" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="34" t="s">
+      <c r="A133" s="35"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="D133" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E133" s="30" t="s">
+      <c r="D133" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E133" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="32"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="34" t="s">
+      <c r="A134" s="35"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="D134" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E134" s="30" t="s">
+      <c r="D134" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="32"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="34" t="s">
+      <c r="A135" s="35"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="D135" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E135" s="30" t="s">
+      <c r="D135" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E135" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="32"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="34" t="s">
+      <c r="A136" s="35"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="D136" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E136" s="30" t="s">
+      <c r="D136" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="32"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="34" t="s">
+      <c r="A137" s="35"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D137" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E137" s="30" t="s">
+      <c r="D137" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E137" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="32"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="34" t="s">
+      <c r="A138" s="35"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E138" s="30" t="s">
+      <c r="D138" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="32"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="34" t="s">
+      <c r="A139" s="35"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D139" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E139" s="30" t="s">
+      <c r="D139" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E139" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="34" t="s">
+      <c r="A140" s="35"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D140" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E140" s="30" t="s">
+      <c r="D140" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="32"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="34" t="s">
+      <c r="A141" s="35"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="D141" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E141" s="30" t="s">
+      <c r="D141" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="32"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="34" t="s">
+      <c r="A142" s="35"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E142" s="30" t="s">
+      <c r="D142" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="32"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="34" t="s">
+      <c r="A143" s="35"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="D143" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E143" s="30" t="s">
+      <c r="D143" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E143" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="34" t="s">
+      <c r="A144" s="35"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="D144" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E144" s="30" t="s">
+      <c r="D144" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="34" t="s">
+      <c r="A145" s="35"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D145" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E145" s="30" t="s">
+      <c r="D145" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E145" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="32"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="34" t="s">
+      <c r="A146" s="35"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="D146" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E146" s="30" t="s">
+      <c r="D146" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="34" t="s">
+      <c r="A147" s="35"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="D147" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E147" s="30" t="s">
+      <c r="D147" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E147" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="32"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="34" t="s">
+      <c r="A148" s="35"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D148" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E148" s="30" t="s">
+      <c r="D148" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="32"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="34" t="s">
+      <c r="A149" s="35"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="D149" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E149" s="30" t="s">
+      <c r="D149" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="32"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="34" t="s">
+      <c r="A150" s="35"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="D150" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E150" s="30" t="s">
+      <c r="D150" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="32"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="34" t="s">
+      <c r="A151" s="35"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D151" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E151" s="30" t="s">
+      <c r="D151" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E151" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="32"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="34" t="s">
+      <c r="A152" s="35"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D152" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E152" s="30" t="s">
+      <c r="D152" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C153" s="34" t="s">
+      <c r="C153" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D153" s="35" t="s">
+      <c r="D153" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E153" s="36" t="s">
+      <c r="E153" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="34" t="s">
+      <c r="A154" s="35"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="35" t="s">
+      <c r="D154" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E154" s="36" t="s">
+      <c r="E154" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="32"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="34" t="s">
+      <c r="A155" s="35"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="35" t="s">
+      <c r="D155" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E155" s="36" t="s">
+      <c r="E155" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="32"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="34" t="s">
+      <c r="A156" s="35"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="D156" s="35" t="s">
+      <c r="D156" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E156" s="36" t="s">
+      <c r="E156" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="32"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="34" t="s">
+      <c r="A157" s="35"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="D157" s="35" t="s">
+      <c r="D157" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E157" s="36" t="s">
+      <c r="E157" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="32"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="34" t="s">
+      <c r="A158" s="35"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="35" t="s">
+      <c r="D158" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E158" s="36" t="s">
+      <c r="E158" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="32"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="34" t="s">
+      <c r="A159" s="35"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="D159" s="35" t="s">
+      <c r="D159" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E159" s="36" t="s">
+      <c r="E159" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="32"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="34" t="s">
+      <c r="A160" s="35"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="D160" s="35" t="s">
+      <c r="D160" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E160" s="36" t="s">
+      <c r="E160" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="32"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="34" t="s">
+      <c r="A161" s="35"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D161" s="35" t="s">
+      <c r="D161" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E161" s="36" t="s">
+      <c r="E161" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="32"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="34" t="s">
+      <c r="A162" s="35"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="D162" s="35" t="s">
+      <c r="D162" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E162" s="36" t="s">
+      <c r="E162" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="32"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="34" t="s">
+      <c r="A163" s="35"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D163" s="35" t="s">
+      <c r="D163" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E163" s="36" t="s">
+      <c r="E163" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="32"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="34" t="s">
+      <c r="A164" s="35"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D164" s="35" t="s">
+      <c r="D164" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E164" s="36" t="s">
+      <c r="E164" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="32"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="34" t="s">
+      <c r="A165" s="35"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D165" s="35" t="s">
+      <c r="D165" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E165" s="36" t="s">
+      <c r="E165" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="32"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="34" t="s">
+      <c r="A166" s="35"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D166" s="35" t="s">
+      <c r="D166" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E166" s="36" t="s">
+      <c r="E166" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="32"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="34" t="s">
+      <c r="A167" s="35"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="D167" s="35" t="s">
+      <c r="D167" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E167" s="36" t="s">
+      <c r="E167" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="32"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="34" t="s">
+      <c r="A168" s="35"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="D168" s="35" t="s">
+      <c r="D168" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E168" s="36" t="s">
+      <c r="E168" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="32"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="34" t="s">
+      <c r="A169" s="35"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="D169" s="35" t="s">
+      <c r="D169" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E169" s="36" t="s">
+      <c r="E169" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="32"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="34" t="s">
+      <c r="A170" s="35"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="D170" s="35" t="s">
+      <c r="D170" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E170" s="36" t="s">
+      <c r="E170" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="32"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="34" t="s">
+      <c r="A171" s="35"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="D171" s="35" t="s">
+      <c r="D171" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E171" s="36" t="s">
+      <c r="E171" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="32"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="34" t="s">
+      <c r="A172" s="35"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="D172" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E172" s="36" t="s">
+      <c r="E172" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="32"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="34" t="s">
+      <c r="A173" s="35"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="D173" s="35" t="s">
+      <c r="D173" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E173" s="36" t="s">
+      <c r="E173" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="32"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="34" t="s">
+      <c r="A174" s="35"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="D174" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E174" s="36" t="s">
+      <c r="E174" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="32"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="34" t="s">
+      <c r="A175" s="35"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="D175" s="35" t="s">
+      <c r="D175" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E175" s="36" t="s">
+      <c r="E175" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="32"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="34" t="s">
+      <c r="A176" s="35"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="D176" s="35" t="s">
+      <c r="D176" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E176" s="36" t="s">
+      <c r="E176" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="32"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="34" t="s">
+      <c r="A177" s="35"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D177" s="35" t="s">
+      <c r="D177" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E177" s="36" t="s">
+      <c r="E177" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="32"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="34" t="s">
+      <c r="A178" s="35"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="D178" s="35" t="s">
+      <c r="D178" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E178" s="36" t="s">
+      <c r="E178" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="32"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="34" t="s">
+      <c r="A179" s="35"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="D179" s="35" t="s">
+      <c r="D179" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E179" s="36" t="s">
+      <c r="E179" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="32"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="34" t="s">
+      <c r="A180" s="35"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="D180" s="35" t="s">
+      <c r="D180" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E180" s="36" t="s">
+      <c r="E180" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="32"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="34" t="s">
+      <c r="A181" s="35"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="D181" s="35" t="s">
+      <c r="D181" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E181" s="36" t="s">
+      <c r="E181" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="32"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="34" t="s">
+      <c r="A182" s="35"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="D182" s="35" t="s">
+      <c r="D182" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E182" s="36" t="s">
+      <c r="E182" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="32"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="34" t="s">
+      <c r="A183" s="35"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="D183" s="35" t="s">
+      <c r="D183" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E183" s="36" t="s">
+      <c r="E183" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="32"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="34" t="s">
+      <c r="A184" s="35"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="D184" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E184" s="36" t="s">
+      <c r="E184" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="32"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="34" t="s">
+      <c r="A185" s="35"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="D185" s="35" t="s">
+      <c r="D185" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E185" s="36" t="s">
+      <c r="E185" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="32"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="34" t="s">
+      <c r="A186" s="35"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="D186" s="35" t="s">
+      <c r="D186" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E186" s="36" t="s">
+      <c r="E186" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="32"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="34" t="s">
+      <c r="A187" s="35"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="D187" s="35" t="s">
+      <c r="D187" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E187" s="36" t="s">
+      <c r="E187" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="34" t="s">
+      <c r="A188" s="35"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="D188" s="35" t="s">
+      <c r="D188" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E188" s="36" t="s">
+      <c r="E188" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="32"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="34" t="s">
+      <c r="A189" s="35"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="D189" s="35" t="s">
+      <c r="D189" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E189" s="36" t="s">
+      <c r="E189" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="32"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="34" t="s">
+      <c r="A190" s="35"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="D190" s="35" t="s">
+      <c r="D190" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="36" t="s">
+      <c r="E190" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="32"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="34" t="s">
+      <c r="A191" s="35"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="D191" s="35" t="s">
+      <c r="D191" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E191" s="36" t="s">
+      <c r="E191" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="32"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="34" t="s">
+      <c r="A192" s="35"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="D192" s="35" t="s">
+      <c r="D192" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E192" s="36" t="s">
+      <c r="E192" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="32"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="34" t="s">
+      <c r="A193" s="35"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D193" s="35" t="s">
+      <c r="D193" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E193" s="36" t="s">
+      <c r="E193" s="23" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="32"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="34" t="s">
+      <c r="A194" s="35"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="D194" s="35" t="s">
+      <c r="D194" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E194" s="36" t="s">
+      <c r="E194" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="34" t="s">
+      <c r="A195" s="35"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="D195" s="35" t="s">
+      <c r="D195" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E195" s="36" t="s">
+      <c r="E195" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="32"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="34" t="s">
+      <c r="A196" s="35"/>
+      <c r="B196" s="36"/>
+      <c r="C196" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="D196" s="35" t="s">
+      <c r="D196" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E196" s="36" t="s">
+      <c r="E196" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="32"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="34" t="s">
+      <c r="A197" s="35"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="D197" s="35" t="s">
+      <c r="D197" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E197" s="36" t="s">
+      <c r="E197" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="32"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="34" t="s">
+      <c r="A198" s="35"/>
+      <c r="B198" s="36"/>
+      <c r="C198" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="D198" s="35" t="s">
+      <c r="D198" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E198" s="36" t="s">
+      <c r="E198" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="32"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="34" t="s">
+      <c r="A199" s="35"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="D199" s="35" t="s">
+      <c r="D199" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E199" s="36" t="s">
+      <c r="E199" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="34" t="s">
+      <c r="C200" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D200" s="20" t="s">
+      <c r="D200" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E200" s="37" t="s">
+      <c r="E200" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="32"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="34" t="s">
+      <c r="A201" s="35"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D201" s="20" t="s">
+      <c r="D201" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E201" s="37" t="s">
+      <c r="E201" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="32"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="34" t="s">
+      <c r="A202" s="35"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D202" s="20" t="s">
+      <c r="D202" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E202" s="37" t="s">
+      <c r="E202" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="34" t="s">
+      <c r="A203" s="35"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D203" s="20" t="s">
+      <c r="D203" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E203" s="37" t="s">
+      <c r="E203" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="32"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="34" t="s">
+      <c r="A204" s="35"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="D204" s="20" t="s">
+      <c r="D204" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E204" s="37" t="s">
+      <c r="E204" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="32"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="34" t="s">
+      <c r="A205" s="35"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="D205" s="20" t="s">
+      <c r="D205" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E205" s="37" t="s">
+      <c r="E205" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="34" t="s">
+      <c r="A206" s="35"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="D206" s="20" t="s">
+      <c r="D206" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E206" s="37" t="s">
+      <c r="E206" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="34" t="s">
+      <c r="A207" s="35"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="D207" s="20" t="s">
+      <c r="D207" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E207" s="37" t="s">
+      <c r="E207" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="32"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="34" t="s">
+      <c r="A208" s="35"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="D208" s="20" t="s">
+      <c r="D208" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E208" s="37" t="s">
+      <c r="E208" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="32"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="34" t="s">
+      <c r="A209" s="35"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="D209" s="20" t="s">
+      <c r="D209" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E209" s="37" t="s">
+      <c r="E209" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="34" t="s">
+      <c r="A210" s="35"/>
+      <c r="B210" s="36"/>
+      <c r="C210" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="D210" s="20" t="s">
+      <c r="D210" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E210" s="37" t="s">
+      <c r="E210" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="34" t="s">
+      <c r="A211" s="35"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="D211" s="20" t="s">
+      <c r="D211" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E211" s="37" t="s">
+      <c r="E211" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="34" t="s">
+      <c r="A212" s="35"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="D212" s="20" t="s">
+      <c r="D212" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E212" s="37" t="s">
+      <c r="E212" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="34" t="s">
+      <c r="A213" s="35"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="D213" s="20" t="s">
+      <c r="D213" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E213" s="37" t="s">
+      <c r="E213" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="34" t="s">
+      <c r="A214" s="35"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="D214" s="20" t="s">
+      <c r="D214" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E214" s="37" t="s">
+      <c r="E214" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="34" t="s">
+      <c r="A215" s="35"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="D215" s="20" t="s">
+      <c r="D215" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E215" s="37" t="s">
+      <c r="E215" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="34" t="s">
+      <c r="A216" s="35"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="D216" s="20" t="s">
+      <c r="D216" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E216" s="37" t="s">
+      <c r="E216" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="34" t="s">
+      <c r="A217" s="35"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="D217" s="20" t="s">
+      <c r="D217" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E217" s="37" t="s">
+      <c r="E217" s="24" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="34" t="s">
+      <c r="A218" s="35"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D218" s="20" t="s">
+      <c r="D218" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E218" s="37" t="s">
+      <c r="E218" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="38"/>
-      <c r="B219" s="39"/>
-      <c r="C219" s="40" t="s">
+      <c r="B219" s="37"/>
+      <c r="C219" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="D219" s="41" t="s">
+      <c r="D219" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="E219" s="42" t="s">
+      <c r="E219" s="27" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A46:A84"/>
+    <mergeCell ref="A85:A125"/>
+    <mergeCell ref="B85:B125"/>
+    <mergeCell ref="B46:B84"/>
     <mergeCell ref="A126:A152"/>
     <mergeCell ref="B126:B152"/>
     <mergeCell ref="A153:A199"/>
     <mergeCell ref="B153:B199"/>
     <mergeCell ref="B200:B219"/>
     <mergeCell ref="A200:A219"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A46:A84"/>
-    <mergeCell ref="A85:A125"/>
-    <mergeCell ref="B85:B125"/>
-    <mergeCell ref="B46:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6489,1334 +6487,1332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="28">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="28">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="28">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="28">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="28">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="28">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="28">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="28">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="28">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="28">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="28">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="28">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="28">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="28">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="28">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="28">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="28">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="28">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="28">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="28">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="28">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="28">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="28">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="28">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="28">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="28">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="28">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="28">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="28">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="28">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="28">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="28">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="28">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="28">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="28">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="28">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="28">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="28">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="28">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="28">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="28">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="28">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="28">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="28">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="28">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="28">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="28">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="28">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="43">
+      <c r="B65" s="28">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="28">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="43">
+      <c r="B67" s="28">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="28">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="28">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="28">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="28">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="28">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="43">
+      <c r="B73" s="28">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="43">
+      <c r="B74" s="28">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="43">
+      <c r="B75" s="28">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="43">
+      <c r="B76" s="28">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="43">
+      <c r="B77" s="28">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="43">
+      <c r="B78" s="28">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="43">
+      <c r="B79" s="28">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="43">
+      <c r="B80" s="28">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="28">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="43">
+      <c r="B82" s="28">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="43">
+      <c r="B83" s="28">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="43">
+      <c r="B84" s="28">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="43">
+      <c r="B85" s="28">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="43">
+      <c r="B86" s="28">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="43">
+      <c r="B87" s="28">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="43">
+      <c r="B88" s="28">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="43">
+      <c r="B89" s="28">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="43">
+      <c r="B90" s="28">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="43">
+      <c r="B91" s="28">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="28">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="28">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="28">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="43">
+      <c r="B95" s="28">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="43">
+      <c r="B96" s="28">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="43">
+      <c r="B97" s="28">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="43">
+      <c r="B98" s="28">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="43">
+      <c r="B99" s="28">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="43">
+      <c r="B100" s="28">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="43" t="s">
+      <c r="A101" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="43">
+      <c r="B101" s="28">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="43">
+      <c r="B102" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="43">
+      <c r="B103" s="28">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="43">
+      <c r="B104" s="28">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="43">
+      <c r="B105" s="28">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="43">
+      <c r="B106" s="28">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="43">
+      <c r="B107" s="28">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="43">
+      <c r="B108" s="28">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="43">
+      <c r="B109" s="28">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="43" t="s">
+      <c r="A110" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="43">
+      <c r="B110" s="28">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="43" t="s">
+      <c r="A111" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="43">
+      <c r="B111" s="28">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="43" t="s">
+      <c r="A112" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="43">
+      <c r="B112" s="28">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="43" t="s">
+      <c r="A113" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="43">
+      <c r="B113" s="28">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="43">
+      <c r="B114" s="28">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="43">
+      <c r="B115" s="28">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="43">
+      <c r="B116" s="28">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="43" t="s">
+      <c r="A117" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="43">
+      <c r="B117" s="28">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="43">
+      <c r="B118" s="28">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="43" t="s">
+      <c r="A119" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="43">
+      <c r="B119" s="28">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="43" t="s">
+      <c r="A120" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="43">
+      <c r="B120" s="28">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="43">
+      <c r="B121" s="28">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="43">
+      <c r="B122" s="28">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="43">
+      <c r="B123" s="28">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="43">
+      <c r="B124" s="28">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="43">
+      <c r="B125" s="28">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="43" t="s">
+      <c r="A126" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="43">
+      <c r="B126" s="28">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="43">
+      <c r="B127" s="28">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="43" t="s">
+      <c r="A128" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="43">
+      <c r="B128" s="28">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="43">
+      <c r="B129" s="28">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="43">
+      <c r="B130" s="28">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="43">
+      <c r="B131" s="28">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="43">
+      <c r="B132" s="28">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="43">
+      <c r="B133" s="28">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="43">
+      <c r="B134" s="28">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="43">
+      <c r="B135" s="28">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="43" t="s">
+      <c r="A136" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="43">
+      <c r="B136" s="28">
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="43">
+      <c r="B137" s="28">
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="43">
+      <c r="B138" s="28">
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="43" t="s">
+      <c r="A139" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="43">
+      <c r="B139" s="28">
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="43">
+      <c r="B140" s="28">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="43">
+      <c r="B141" s="28">
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="43" t="s">
+      <c r="A142" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="43">
+      <c r="B142" s="28">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="43" t="s">
+      <c r="A143" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="43">
+      <c r="B143" s="28">
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="43">
+      <c r="B144" s="28">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="43" t="s">
+      <c r="A145" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="43">
+      <c r="B145" s="28">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="43">
+      <c r="B146" s="28">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="43">
+      <c r="B147" s="28">
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="43">
+      <c r="B148" s="28">
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="43">
+      <c r="B149" s="28">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="43">
+      <c r="B150" s="28">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="43">
+      <c r="B151" s="28">
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="43">
+      <c r="B152" s="28">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="43">
+      <c r="B153" s="28">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="43" t="s">
+      <c r="A154" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="43">
+      <c r="B154" s="28">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="43">
+      <c r="B155" s="28">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="43">
+      <c r="B156" s="28">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="43" t="s">
+      <c r="A157" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="43">
+      <c r="B157" s="28">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="43">
+      <c r="B158" s="28">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="43" t="s">
+      <c r="A159" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="43">
+      <c r="B159" s="28">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="43">
+      <c r="B160" s="28">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="43">
+      <c r="B161" s="28">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="43">
+      <c r="B162" s="28">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="43" t="s">
+      <c r="A163" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="43">
+      <c r="B163" s="28">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="43">
+      <c r="B164" s="28">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="43" t="s">
+      <c r="A165" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="43">
+      <c r="B165" s="28">
         <v>163</v>
       </c>
     </row>

--- a/Data_S3.xlsx
+++ b/Data_S3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A32AE-BF93-4355-9384-B8ADC7B60F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C8BA29-5A5A-4FAA-A59D-C2BD2C615811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="510">
   <si>
     <t>Index</t>
   </si>
@@ -1580,6 +1580,9 @@
   </si>
   <si>
     <t>This supporting information provides the 5 spreadsheets that provide the classification of  countries and regions, economic activities, final demand, and material in stock additions extension from EXIOBASE MR-HIOT v3.3.18</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
   </si>
 </sst>
 </file>
@@ -1967,18 +1970,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1992,6 +1983,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2534,7 +2537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2699,8 +2704,8 @@
       <c r="A12" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="7">
-        <v>44084</v>
+      <c r="C12" s="7" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3584,15 +3589,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4343,10 +4348,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="42" t="s">
         <v>257</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -4360,8 +4365,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="21" t="s">
         <v>284</v>
       </c>
@@ -4373,8 +4378,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="21" t="s">
         <v>299</v>
       </c>
@@ -4386,8 +4391,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="21" t="s">
         <v>310</v>
       </c>
@@ -4399,8 +4404,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="21" t="s">
         <v>305</v>
       </c>
@@ -4412,8 +4417,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="21" t="s">
         <v>337</v>
       </c>
@@ -4425,8 +4430,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="21" t="s">
         <v>383</v>
       </c>
@@ -4438,8 +4443,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="21" t="s">
         <v>346</v>
       </c>
@@ -4451,8 +4456,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="21" t="s">
         <v>353</v>
       </c>
@@ -4464,8 +4469,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="21" t="s">
         <v>314</v>
       </c>
@@ -4477,8 +4482,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="21" t="s">
         <v>363</v>
       </c>
@@ -4490,8 +4495,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="21" t="s">
         <v>367</v>
       </c>
@@ -4503,8 +4508,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="21" t="s">
         <v>423</v>
       </c>
@@ -4516,8 +4521,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="21" t="s">
         <v>373</v>
       </c>
@@ -4529,8 +4534,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="21" t="s">
         <v>378</v>
       </c>
@@ -4542,8 +4547,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="21" t="s">
         <v>380</v>
       </c>
@@ -4555,8 +4560,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="21" t="s">
         <v>390</v>
       </c>
@@ -4568,8 +4573,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="21" t="s">
         <v>386</v>
       </c>
@@ -4581,8 +4586,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="21" t="s">
         <v>399</v>
       </c>
@@ -4594,8 +4599,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="21" t="s">
         <v>377</v>
       </c>
@@ -4607,8 +4612,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="21" t="s">
         <v>394</v>
       </c>
@@ -4620,8 +4625,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="21" t="s">
         <v>393</v>
       </c>
@@ -4633,8 +4638,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="21" t="s">
         <v>392</v>
       </c>
@@ -4646,8 +4651,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="21" t="s">
         <v>395</v>
       </c>
@@ -4659,8 +4664,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="21" t="s">
         <v>401</v>
       </c>
@@ -4672,8 +4677,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="21" t="s">
         <v>407</v>
       </c>
@@ -4685,8 +4690,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="21" t="s">
         <v>402</v>
       </c>
@@ -4698,8 +4703,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="21" t="s">
         <v>404</v>
       </c>
@@ -4711,8 +4716,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="21" t="s">
         <v>458</v>
       </c>
@@ -4724,8 +4729,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="21" t="s">
         <v>338</v>
       </c>
@@ -4737,8 +4742,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="21" t="s">
         <v>418</v>
       </c>
@@ -4750,8 +4755,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="21" t="s">
         <v>420</v>
       </c>
@@ -4763,8 +4768,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="21" t="s">
         <v>434</v>
       </c>
@@ -4776,8 +4781,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="21" t="s">
         <v>435</v>
       </c>
@@ -4789,8 +4794,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="21" t="s">
         <v>437</v>
       </c>
@@ -4802,8 +4807,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="21" t="s">
         <v>442</v>
       </c>
@@ -4815,8 +4820,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="21" t="s">
         <v>450</v>
       </c>
@@ -4828,8 +4833,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="36"/>
-      <c r="B83" s="37"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="21" t="s">
         <v>448</v>
       </c>
@@ -4841,8 +4846,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="21" t="s">
         <v>411</v>
       </c>
@@ -4854,10 +4859,10 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="42" t="s">
         <v>259</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -4871,8 +4876,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="21" t="s">
         <v>293</v>
       </c>
@@ -4884,8 +4889,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="21" t="s">
         <v>291</v>
       </c>
@@ -4897,8 +4902,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="21" t="s">
         <v>297</v>
       </c>
@@ -4910,8 +4915,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="21" t="s">
         <v>302</v>
       </c>
@@ -4923,8 +4928,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="21" t="s">
         <v>304</v>
       </c>
@@ -4936,8 +4941,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="21" t="s">
         <v>306</v>
       </c>
@@ -4949,8 +4954,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="37"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="21" t="s">
         <v>300</v>
       </c>
@@ -4962,8 +4967,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="21" t="s">
         <v>320</v>
       </c>
@@ -4975,8 +4980,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="21" t="s">
         <v>321</v>
       </c>
@@ -4988,8 +4993,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="21" t="s">
         <v>325</v>
       </c>
@@ -5001,8 +5006,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="21" t="s">
         <v>326</v>
       </c>
@@ -5014,8 +5019,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="36"/>
-      <c r="B97" s="37"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="21" t="s">
         <v>457</v>
       </c>
@@ -5027,8 +5032,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="36"/>
-      <c r="B98" s="37"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="21" t="s">
         <v>316</v>
       </c>
@@ -5040,8 +5045,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="36"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="21" t="s">
         <v>328</v>
       </c>
@@ -5053,8 +5058,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="21" t="s">
         <v>329</v>
       </c>
@@ -5066,8 +5071,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="36"/>
-      <c r="B101" s="37"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="21" t="s">
         <v>330</v>
       </c>
@@ -5079,8 +5084,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="36"/>
-      <c r="B102" s="37"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="21" t="s">
         <v>345</v>
       </c>
@@ -5092,8 +5097,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="21" t="s">
         <v>347</v>
       </c>
@@ -5105,8 +5110,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="36"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="21" t="s">
         <v>350</v>
       </c>
@@ -5118,8 +5123,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="21" t="s">
         <v>352</v>
       </c>
@@ -5131,8 +5136,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="36"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="21" t="s">
         <v>351</v>
       </c>
@@ -5144,8 +5149,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="36"/>
-      <c r="B107" s="37"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="21" t="s">
         <v>359</v>
       </c>
@@ -5157,8 +5162,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="36"/>
-      <c r="B108" s="37"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="21" t="s">
         <v>424</v>
       </c>
@@ -5170,8 +5175,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="36"/>
-      <c r="B109" s="37"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="21" t="s">
         <v>425</v>
       </c>
@@ -5183,8 +5188,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="36"/>
-      <c r="B110" s="37"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="21" t="s">
         <v>426</v>
       </c>
@@ -5196,8 +5201,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
-      <c r="B111" s="37"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="21" t="s">
         <v>396</v>
       </c>
@@ -5209,8 +5214,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="37"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="21" t="s">
         <v>403</v>
       </c>
@@ -5222,8 +5227,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="37"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="21" t="s">
         <v>406</v>
       </c>
@@ -5235,8 +5240,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="21" t="s">
         <v>408</v>
       </c>
@@ -5248,8 +5253,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="37"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="21" t="s">
         <v>405</v>
       </c>
@@ -5261,8 +5266,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="37"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="21" t="s">
         <v>332</v>
       </c>
@@ -5274,8 +5279,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="37"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="21" t="s">
         <v>429</v>
       </c>
@@ -5287,8 +5292,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="37"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="21" t="s">
         <v>419</v>
       </c>
@@ -5300,8 +5305,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="37"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="21" t="s">
         <v>441</v>
       </c>
@@ -5313,8 +5318,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
-      <c r="B120" s="37"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="21" t="s">
         <v>438</v>
       </c>
@@ -5326,8 +5331,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="37"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="21" t="s">
         <v>446</v>
       </c>
@@ -5339,8 +5344,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
-      <c r="B122" s="37"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="21" t="s">
         <v>427</v>
       </c>
@@ -5352,8 +5357,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="36"/>
-      <c r="B123" s="37"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="21" t="s">
         <v>449</v>
       </c>
@@ -5365,8 +5370,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="36"/>
-      <c r="B124" s="37"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="21" t="s">
         <v>309</v>
       </c>
@@ -5378,8 +5383,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="36"/>
-      <c r="B125" s="37"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="21" t="s">
         <v>451</v>
       </c>
@@ -5391,10 +5396,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="36" t="s">
+      <c r="A126" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="42" t="s">
         <v>261</v>
       </c>
       <c r="C126" s="21" t="s">
@@ -5408,8 +5413,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="36"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="41"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="21" t="s">
         <v>286</v>
       </c>
@@ -5421,8 +5426,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="36"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="21" t="s">
         <v>294</v>
       </c>
@@ -5434,8 +5439,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="36"/>
-      <c r="B129" s="37"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="21" t="s">
         <v>296</v>
       </c>
@@ -5447,8 +5452,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="36"/>
-      <c r="B130" s="37"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="21" t="s">
         <v>307</v>
       </c>
@@ -5460,8 +5465,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="36"/>
-      <c r="B131" s="37"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="21" t="s">
         <v>301</v>
       </c>
@@ -5473,8 +5478,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="36"/>
-      <c r="B132" s="37"/>
+      <c r="A132" s="41"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="21" t="s">
         <v>319</v>
       </c>
@@ -5486,8 +5491,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="36"/>
-      <c r="B133" s="37"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="21" t="s">
         <v>336</v>
       </c>
@@ -5499,8 +5504,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
-      <c r="B134" s="37"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="21" t="s">
         <v>341</v>
       </c>
@@ -5512,8 +5517,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
-      <c r="B135" s="37"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="21" t="s">
         <v>343</v>
       </c>
@@ -5525,8 +5530,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="36"/>
-      <c r="B136" s="37"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="21" t="s">
         <v>344</v>
       </c>
@@ -5538,8 +5543,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="36"/>
-      <c r="B137" s="37"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="21" t="s">
         <v>357</v>
       </c>
@@ -5551,8 +5556,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="36"/>
-      <c r="B138" s="37"/>
+      <c r="A138" s="41"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="21" t="s">
         <v>354</v>
       </c>
@@ -5564,8 +5569,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="36"/>
-      <c r="B139" s="37"/>
+      <c r="A139" s="41"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="21" t="s">
         <v>361</v>
       </c>
@@ -5577,8 +5582,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="36"/>
-      <c r="B140" s="37"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="21" t="s">
         <v>366</v>
       </c>
@@ -5590,8 +5595,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="36"/>
-      <c r="B141" s="37"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="21" t="s">
         <v>372</v>
       </c>
@@ -5603,8 +5608,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="36"/>
-      <c r="B142" s="37"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="21" t="s">
         <v>385</v>
       </c>
@@ -5616,8 +5621,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="36"/>
-      <c r="B143" s="37"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="21" t="s">
         <v>384</v>
       </c>
@@ -5629,8 +5634,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="36"/>
-      <c r="B144" s="37"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="21" t="s">
         <v>374</v>
       </c>
@@ -5642,8 +5647,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="36"/>
-      <c r="B145" s="37"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="21" t="s">
         <v>387</v>
       </c>
@@ -5655,8 +5660,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="36"/>
-      <c r="B146" s="37"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="21" t="s">
         <v>412</v>
       </c>
@@ -5668,8 +5673,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="36"/>
-      <c r="B147" s="37"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="21" t="s">
         <v>415</v>
       </c>
@@ -5681,8 +5686,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="36"/>
-      <c r="B148" s="37"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="21" t="s">
         <v>432</v>
       </c>
@@ -5694,8 +5699,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="36"/>
-      <c r="B149" s="37"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="42"/>
       <c r="C149" s="21" t="s">
         <v>440</v>
       </c>
@@ -5707,8 +5712,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="36"/>
-      <c r="B150" s="37"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="21" t="s">
         <v>444</v>
       </c>
@@ -5720,8 +5725,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="36"/>
-      <c r="B151" s="37"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="21" t="s">
         <v>447</v>
       </c>
@@ -5733,8 +5738,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="36"/>
-      <c r="B152" s="37"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="21" t="s">
         <v>364</v>
       </c>
@@ -5746,10 +5751,10 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="36" t="s">
+      <c r="A153" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="42" t="s">
         <v>263</v>
       </c>
       <c r="C153" s="21" t="s">
@@ -5763,8 +5768,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="36"/>
-      <c r="B154" s="37"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="21" t="s">
         <v>312</v>
       </c>
@@ -5776,8 +5781,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
-      <c r="B155" s="37"/>
+      <c r="A155" s="41"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="21" t="s">
         <v>303</v>
       </c>
@@ -5789,8 +5794,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="21" t="s">
         <v>311</v>
       </c>
@@ -5802,8 +5807,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="36"/>
-      <c r="B157" s="37"/>
+      <c r="A157" s="41"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="21" t="s">
         <v>308</v>
       </c>
@@ -5815,8 +5820,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
-      <c r="B158" s="37"/>
+      <c r="A158" s="41"/>
+      <c r="B158" s="42"/>
       <c r="C158" s="21" t="s">
         <v>317</v>
       </c>
@@ -5828,8 +5833,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
-      <c r="B159" s="37"/>
+      <c r="A159" s="41"/>
+      <c r="B159" s="42"/>
       <c r="C159" s="21" t="s">
         <v>456</v>
       </c>
@@ -5841,8 +5846,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="36"/>
-      <c r="B160" s="37"/>
+      <c r="A160" s="41"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="21" t="s">
         <v>315</v>
       </c>
@@ -5854,8 +5859,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="36"/>
-      <c r="B161" s="37"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="42"/>
       <c r="C161" s="21" t="s">
         <v>323</v>
       </c>
@@ -5867,8 +5872,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="36"/>
-      <c r="B162" s="37"/>
+      <c r="A162" s="41"/>
+      <c r="B162" s="42"/>
       <c r="C162" s="21" t="s">
         <v>324</v>
       </c>
@@ -5880,8 +5885,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="36"/>
-      <c r="B163" s="37"/>
+      <c r="A163" s="41"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="21" t="s">
         <v>322</v>
       </c>
@@ -5893,8 +5898,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
-      <c r="B164" s="37"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="42"/>
       <c r="C164" s="21" t="s">
         <v>313</v>
       </c>
@@ -5906,8 +5911,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
-      <c r="B165" s="37"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="42"/>
       <c r="C165" s="21" t="s">
         <v>334</v>
       </c>
@@ -5919,8 +5924,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
-      <c r="B166" s="37"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="42"/>
       <c r="C166" s="21" t="s">
         <v>335</v>
       </c>
@@ -5932,8 +5937,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="36"/>
-      <c r="B167" s="37"/>
+      <c r="A167" s="41"/>
+      <c r="B167" s="42"/>
       <c r="C167" s="21" t="s">
         <v>339</v>
       </c>
@@ -5945,8 +5950,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="36"/>
-      <c r="B168" s="37"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="21" t="s">
         <v>342</v>
       </c>
@@ -5958,8 +5963,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="36"/>
-      <c r="B169" s="37"/>
+      <c r="A169" s="41"/>
+      <c r="B169" s="42"/>
       <c r="C169" s="21" t="s">
         <v>348</v>
       </c>
@@ -5971,8 +5976,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="36"/>
-      <c r="B170" s="37"/>
+      <c r="A170" s="41"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="21" t="s">
         <v>340</v>
       </c>
@@ -5984,8 +5989,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="36"/>
-      <c r="B171" s="37"/>
+      <c r="A171" s="41"/>
+      <c r="B171" s="42"/>
       <c r="C171" s="21" t="s">
         <v>349</v>
       </c>
@@ -5997,8 +6002,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="36"/>
-      <c r="B172" s="37"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="21" t="s">
         <v>333</v>
       </c>
@@ -6010,8 +6015,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="36"/>
-      <c r="B173" s="37"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="21" t="s">
         <v>362</v>
       </c>
@@ -6023,8 +6028,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="36"/>
-      <c r="B174" s="37"/>
+      <c r="A174" s="41"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="21" t="s">
         <v>370</v>
       </c>
@@ -6036,8 +6041,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="36"/>
-      <c r="B175" s="37"/>
+      <c r="A175" s="41"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="21" t="s">
         <v>369</v>
       </c>
@@ -6049,8 +6054,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="36"/>
-      <c r="B176" s="37"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="21" t="s">
         <v>375</v>
       </c>
@@ -6062,8 +6067,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="36"/>
-      <c r="B177" s="37"/>
+      <c r="A177" s="41"/>
+      <c r="B177" s="42"/>
       <c r="C177" s="21" t="s">
         <v>379</v>
       </c>
@@ -6075,8 +6080,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="36"/>
-      <c r="B178" s="37"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="42"/>
       <c r="C178" s="21" t="s">
         <v>389</v>
       </c>
@@ -6088,8 +6093,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="36"/>
-      <c r="B179" s="37"/>
+      <c r="A179" s="41"/>
+      <c r="B179" s="42"/>
       <c r="C179" s="21" t="s">
         <v>381</v>
       </c>
@@ -6101,8 +6106,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="36"/>
-      <c r="B180" s="37"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="42"/>
       <c r="C180" s="21" t="s">
         <v>382</v>
       </c>
@@ -6114,8 +6119,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="36"/>
-      <c r="B181" s="37"/>
+      <c r="A181" s="41"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="21" t="s">
         <v>376</v>
       </c>
@@ -6127,8 +6132,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="36"/>
-      <c r="B182" s="37"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="42"/>
       <c r="C182" s="21" t="s">
         <v>391</v>
       </c>
@@ -6140,8 +6145,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="36"/>
-      <c r="B183" s="37"/>
+      <c r="A183" s="41"/>
+      <c r="B183" s="42"/>
       <c r="C183" s="21" t="s">
         <v>397</v>
       </c>
@@ -6153,8 +6158,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="36"/>
-      <c r="B184" s="37"/>
+      <c r="A184" s="41"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="21" t="s">
         <v>398</v>
       </c>
@@ -6166,8 +6171,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="36"/>
-      <c r="B185" s="37"/>
+      <c r="A185" s="41"/>
+      <c r="B185" s="42"/>
       <c r="C185" s="21" t="s">
         <v>410</v>
       </c>
@@ -6179,8 +6184,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="36"/>
-      <c r="B186" s="37"/>
+      <c r="A186" s="41"/>
+      <c r="B186" s="42"/>
       <c r="C186" s="21" t="s">
         <v>428</v>
       </c>
@@ -6192,8 +6197,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="36"/>
-      <c r="B187" s="37"/>
+      <c r="A187" s="41"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="21" t="s">
         <v>414</v>
       </c>
@@ -6205,8 +6210,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="36"/>
-      <c r="B188" s="37"/>
+      <c r="A188" s="41"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="21" t="s">
         <v>417</v>
       </c>
@@ -6218,8 +6223,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="36"/>
-      <c r="B189" s="37"/>
+      <c r="A189" s="41"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="21" t="s">
         <v>421</v>
       </c>
@@ -6231,8 +6236,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
+      <c r="A190" s="41"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="21" t="s">
         <v>422</v>
       </c>
@@ -6244,8 +6249,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="36"/>
-      <c r="B191" s="37"/>
+      <c r="A191" s="41"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="21" t="s">
         <v>459</v>
       </c>
@@ -6257,8 +6262,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="36"/>
-      <c r="B192" s="37"/>
+      <c r="A192" s="41"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="21" t="s">
         <v>430</v>
       </c>
@@ -6270,8 +6275,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="36"/>
-      <c r="B193" s="37"/>
+      <c r="A193" s="41"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="21" t="s">
         <v>416</v>
       </c>
@@ -6283,8 +6288,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="36"/>
-      <c r="B194" s="37"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="21" t="s">
         <v>318</v>
       </c>
@@ -6296,8 +6301,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="36"/>
-      <c r="B195" s="37"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="21" t="s">
         <v>436</v>
       </c>
@@ -6309,8 +6314,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="36"/>
-      <c r="B196" s="37"/>
+      <c r="A196" s="41"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="21" t="s">
         <v>433</v>
       </c>
@@ -6322,8 +6327,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="36"/>
-      <c r="B197" s="37"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="21" t="s">
         <v>443</v>
       </c>
@@ -6335,8 +6340,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="36"/>
-      <c r="B198" s="37"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="21" t="s">
         <v>454</v>
       </c>
@@ -6348,8 +6353,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="36"/>
-      <c r="B199" s="37"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="21" t="s">
         <v>455</v>
       </c>
@@ -6361,10 +6366,10 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="36" t="s">
+      <c r="A200" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B200" s="37" t="s">
+      <c r="B200" s="42" t="s">
         <v>265</v>
       </c>
       <c r="C200" s="21" t="s">
@@ -6378,8 +6383,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="36"/>
-      <c r="B201" s="37"/>
+      <c r="A201" s="41"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="21" t="s">
         <v>298</v>
       </c>
@@ -6391,8 +6396,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="36"/>
-      <c r="B202" s="37"/>
+      <c r="A202" s="41"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="21" t="s">
         <v>327</v>
       </c>
@@ -6404,8 +6409,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="36"/>
-      <c r="B203" s="37"/>
+      <c r="A203" s="41"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="21" t="s">
         <v>282</v>
       </c>
@@ -6417,8 +6422,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="36"/>
-      <c r="B204" s="37"/>
+      <c r="A204" s="41"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="21" t="s">
         <v>331</v>
       </c>
@@ -6430,8 +6435,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="36"/>
-      <c r="B205" s="37"/>
+      <c r="A205" s="41"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="21" t="s">
         <v>355</v>
       </c>
@@ -6443,8 +6448,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="36"/>
-      <c r="B206" s="37"/>
+      <c r="A206" s="41"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="21" t="s">
         <v>356</v>
       </c>
@@ -6456,8 +6461,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="36"/>
-      <c r="B207" s="37"/>
+      <c r="A207" s="41"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="21" t="s">
         <v>358</v>
       </c>
@@ -6469,8 +6474,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="36"/>
-      <c r="B208" s="37"/>
+      <c r="A208" s="41"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="21" t="s">
         <v>360</v>
       </c>
@@ -6482,8 +6487,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="36"/>
-      <c r="B209" s="37"/>
+      <c r="A209" s="41"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="21" t="s">
         <v>365</v>
       </c>
@@ -6495,8 +6500,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="36"/>
-      <c r="B210" s="37"/>
+      <c r="A210" s="41"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="21" t="s">
         <v>368</v>
       </c>
@@ -6508,8 +6513,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="36"/>
-      <c r="B211" s="37"/>
+      <c r="A211" s="41"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="21" t="s">
         <v>371</v>
       </c>
@@ -6521,8 +6526,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="36"/>
-      <c r="B212" s="37"/>
+      <c r="A212" s="41"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="21" t="s">
         <v>388</v>
       </c>
@@ -6534,8 +6539,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="36"/>
-      <c r="B213" s="37"/>
+      <c r="A213" s="41"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="21" t="s">
         <v>400</v>
       </c>
@@ -6547,8 +6552,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="36"/>
-      <c r="B214" s="37"/>
+      <c r="A214" s="41"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="21" t="s">
         <v>452</v>
       </c>
@@ -6560,8 +6565,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="36"/>
-      <c r="B215" s="37"/>
+      <c r="A215" s="41"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="21" t="s">
         <v>409</v>
       </c>
@@ -6573,8 +6578,8 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="36"/>
-      <c r="B216" s="37"/>
+      <c r="A216" s="41"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="21" t="s">
         <v>413</v>
       </c>
@@ -6586,8 +6591,8 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="36"/>
-      <c r="B217" s="37"/>
+      <c r="A217" s="41"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="21" t="s">
         <v>431</v>
       </c>
@@ -6599,8 +6604,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="36"/>
-      <c r="B218" s="37"/>
+      <c r="A218" s="41"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="21" t="s">
         <v>439</v>
       </c>
@@ -6612,8 +6617,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="39"/>
-      <c r="B219" s="38"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="43"/>
       <c r="C219" s="25" t="s">
         <v>453</v>
       </c>
@@ -6626,18 +6631,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A126:A152"/>
+    <mergeCell ref="B126:B152"/>
+    <mergeCell ref="A153:A199"/>
+    <mergeCell ref="B153:B199"/>
+    <mergeCell ref="B200:B219"/>
+    <mergeCell ref="A200:A219"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A46:A84"/>
     <mergeCell ref="A85:A125"/>
     <mergeCell ref="B85:B125"/>
     <mergeCell ref="B46:B84"/>
-    <mergeCell ref="A126:A152"/>
-    <mergeCell ref="B126:B152"/>
-    <mergeCell ref="A153:A199"/>
-    <mergeCell ref="B153:B199"/>
-    <mergeCell ref="B200:B219"/>
-    <mergeCell ref="A200:A219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Data_S3.xlsx
+++ b/Data_S3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C8BA29-5A5A-4FAA-A59D-C2BD2C615811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CAB88-E097-4D96-B764-03B03F5AA0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="509">
   <si>
     <t>Index</t>
   </si>
@@ -1580,9 +1580,6 @@
   </si>
   <si>
     <t>This supporting information provides the 5 spreadsheets that provide the classification of  countries and regions, economic activities, final demand, and material in stock additions extension from EXIOBASE MR-HIOT v3.3.18</t>
-  </si>
-  <si>
-    <t>13/10/2020</t>
   </si>
 </sst>
 </file>
@@ -1970,6 +1967,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1983,18 +1992,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2704,8 +2701,8 @@
       <c r="A12" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>509</v>
+      <c r="C12" s="7">
+        <v>43872</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3589,15 +3586,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4348,10 +4345,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="37" t="s">
         <v>257</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -4365,8 +4362,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="21" t="s">
         <v>284</v>
       </c>
@@ -4378,8 +4375,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="21" t="s">
         <v>299</v>
       </c>
@@ -4391,8 +4388,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="21" t="s">
         <v>310</v>
       </c>
@@ -4404,8 +4401,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="21" t="s">
         <v>305</v>
       </c>
@@ -4417,8 +4414,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="21" t="s">
         <v>337</v>
       </c>
@@ -4430,8 +4427,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="21" t="s">
         <v>383</v>
       </c>
@@ -4443,8 +4440,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="21" t="s">
         <v>346</v>
       </c>
@@ -4456,8 +4453,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="21" t="s">
         <v>353</v>
       </c>
@@ -4469,8 +4466,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="21" t="s">
         <v>314</v>
       </c>
@@ -4482,8 +4479,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="21" t="s">
         <v>363</v>
       </c>
@@ -4495,8 +4492,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="21" t="s">
         <v>367</v>
       </c>
@@ -4508,8 +4505,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="21" t="s">
         <v>423</v>
       </c>
@@ -4521,8 +4518,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="21" t="s">
         <v>373</v>
       </c>
@@ -4534,8 +4531,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="21" t="s">
         <v>378</v>
       </c>
@@ -4547,8 +4544,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="21" t="s">
         <v>380</v>
       </c>
@@ -4560,8 +4557,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="21" t="s">
         <v>390</v>
       </c>
@@ -4573,8 +4570,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="21" t="s">
         <v>386</v>
       </c>
@@ -4586,8 +4583,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="21" t="s">
         <v>399</v>
       </c>
@@ -4599,8 +4596,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="21" t="s">
         <v>377</v>
       </c>
@@ -4612,8 +4609,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="21" t="s">
         <v>394</v>
       </c>
@@ -4625,8 +4622,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="21" t="s">
         <v>393</v>
       </c>
@@ -4638,8 +4635,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="42"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="21" t="s">
         <v>392</v>
       </c>
@@ -4651,8 +4648,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="21" t="s">
         <v>395</v>
       </c>
@@ -4664,8 +4661,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="21" t="s">
         <v>401</v>
       </c>
@@ -4677,8 +4674,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="21" t="s">
         <v>407</v>
       </c>
@@ -4690,8 +4687,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="21" t="s">
         <v>402</v>
       </c>
@@ -4703,8 +4700,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="21" t="s">
         <v>404</v>
       </c>
@@ -4716,8 +4713,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="21" t="s">
         <v>458</v>
       </c>
@@ -4729,8 +4726,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="21" t="s">
         <v>338</v>
       </c>
@@ -4742,8 +4739,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="21" t="s">
         <v>418</v>
       </c>
@@ -4755,8 +4752,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="21" t="s">
         <v>420</v>
       </c>
@@ -4768,8 +4765,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="21" t="s">
         <v>434</v>
       </c>
@@ -4781,8 +4778,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="21" t="s">
         <v>435</v>
       </c>
@@ -4794,8 +4791,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="41"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="21" t="s">
         <v>437</v>
       </c>
@@ -4807,8 +4804,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="41"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="21" t="s">
         <v>442</v>
       </c>
@@ -4820,8 +4817,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="41"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="21" t="s">
         <v>450</v>
       </c>
@@ -4833,8 +4830,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="41"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="21" t="s">
         <v>448</v>
       </c>
@@ -4846,8 +4843,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="21" t="s">
         <v>411</v>
       </c>
@@ -4859,10 +4856,10 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -4876,8 +4873,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="41"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="21" t="s">
         <v>293</v>
       </c>
@@ -4889,8 +4886,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="41"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="21" t="s">
         <v>291</v>
       </c>
@@ -4902,8 +4899,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="41"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="21" t="s">
         <v>297</v>
       </c>
@@ -4915,8 +4912,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="41"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="21" t="s">
         <v>302</v>
       </c>
@@ -4928,8 +4925,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="41"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="21" t="s">
         <v>304</v>
       </c>
@@ -4941,8 +4938,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="41"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="21" t="s">
         <v>306</v>
       </c>
@@ -4954,8 +4951,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="41"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="21" t="s">
         <v>300</v>
       </c>
@@ -4967,8 +4964,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="41"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="21" t="s">
         <v>320</v>
       </c>
@@ -4980,8 +4977,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="41"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="21" t="s">
         <v>321</v>
       </c>
@@ -4993,8 +4990,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="41"/>
-      <c r="B95" s="42"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="21" t="s">
         <v>325</v>
       </c>
@@ -5006,8 +5003,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="41"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="21" t="s">
         <v>326</v>
       </c>
@@ -5019,8 +5016,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="41"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="21" t="s">
         <v>457</v>
       </c>
@@ -5032,8 +5029,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="41"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="21" t="s">
         <v>316</v>
       </c>
@@ -5045,8 +5042,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="41"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="21" t="s">
         <v>328</v>
       </c>
@@ -5058,8 +5055,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="41"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="21" t="s">
         <v>329</v>
       </c>
@@ -5071,8 +5068,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="41"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="21" t="s">
         <v>330</v>
       </c>
@@ -5084,8 +5081,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="41"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="21" t="s">
         <v>345</v>
       </c>
@@ -5097,8 +5094,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="41"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="21" t="s">
         <v>347</v>
       </c>
@@ -5110,8 +5107,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="41"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="21" t="s">
         <v>350</v>
       </c>
@@ -5123,8 +5120,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="41"/>
-      <c r="B105" s="42"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="21" t="s">
         <v>352</v>
       </c>
@@ -5136,8 +5133,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="41"/>
-      <c r="B106" s="42"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="21" t="s">
         <v>351</v>
       </c>
@@ -5149,8 +5146,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="41"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="21" t="s">
         <v>359</v>
       </c>
@@ -5162,8 +5159,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="41"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="21" t="s">
         <v>424</v>
       </c>
@@ -5175,8 +5172,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="41"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="21" t="s">
         <v>425</v>
       </c>
@@ -5188,8 +5185,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="41"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="21" t="s">
         <v>426</v>
       </c>
@@ -5201,8 +5198,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="41"/>
-      <c r="B111" s="42"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="21" t="s">
         <v>396</v>
       </c>
@@ -5214,8 +5211,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="41"/>
-      <c r="B112" s="42"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="21" t="s">
         <v>403</v>
       </c>
@@ -5227,8 +5224,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="41"/>
-      <c r="B113" s="42"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="21" t="s">
         <v>406</v>
       </c>
@@ -5240,8 +5237,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="41"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="21" t="s">
         <v>408</v>
       </c>
@@ -5253,8 +5250,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="41"/>
-      <c r="B115" s="42"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="21" t="s">
         <v>405</v>
       </c>
@@ -5266,8 +5263,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="41"/>
-      <c r="B116" s="42"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="21" t="s">
         <v>332</v>
       </c>
@@ -5279,8 +5276,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="41"/>
-      <c r="B117" s="42"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="21" t="s">
         <v>429</v>
       </c>
@@ -5292,8 +5289,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="41"/>
-      <c r="B118" s="42"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="21" t="s">
         <v>419</v>
       </c>
@@ -5305,8 +5302,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="41"/>
-      <c r="B119" s="42"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="21" t="s">
         <v>441</v>
       </c>
@@ -5318,8 +5315,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="41"/>
-      <c r="B120" s="42"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="21" t="s">
         <v>438</v>
       </c>
@@ -5331,8 +5328,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="41"/>
-      <c r="B121" s="42"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="21" t="s">
         <v>446</v>
       </c>
@@ -5344,8 +5341,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="41"/>
-      <c r="B122" s="42"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="21" t="s">
         <v>427</v>
       </c>
@@ -5357,8 +5354,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="41"/>
-      <c r="B123" s="42"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="21" t="s">
         <v>449</v>
       </c>
@@ -5370,8 +5367,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="41"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="21" t="s">
         <v>309</v>
       </c>
@@ -5383,8 +5380,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="41"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="21" t="s">
         <v>451</v>
       </c>
@@ -5396,10 +5393,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B126" s="42" t="s">
+      <c r="B126" s="37" t="s">
         <v>261</v>
       </c>
       <c r="C126" s="21" t="s">
@@ -5413,8 +5410,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="41"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="21" t="s">
         <v>286</v>
       </c>
@@ -5426,8 +5423,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="41"/>
-      <c r="B128" s="42"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="21" t="s">
         <v>294</v>
       </c>
@@ -5439,8 +5436,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="41"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="21" t="s">
         <v>296</v>
       </c>
@@ -5452,8 +5449,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="21" t="s">
         <v>307</v>
       </c>
@@ -5465,8 +5462,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="21" t="s">
         <v>301</v>
       </c>
@@ -5478,8 +5475,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="21" t="s">
         <v>319</v>
       </c>
@@ -5491,8 +5488,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="41"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="21" t="s">
         <v>336</v>
       </c>
@@ -5504,8 +5501,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="37"/>
       <c r="C134" s="21" t="s">
         <v>341</v>
       </c>
@@ -5517,8 +5514,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="37"/>
       <c r="C135" s="21" t="s">
         <v>343</v>
       </c>
@@ -5530,8 +5527,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="41"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="21" t="s">
         <v>344</v>
       </c>
@@ -5543,8 +5540,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="41"/>
-      <c r="B137" s="42"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="21" t="s">
         <v>357</v>
       </c>
@@ -5556,8 +5553,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="41"/>
-      <c r="B138" s="42"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="21" t="s">
         <v>354</v>
       </c>
@@ -5569,8 +5566,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="41"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="21" t="s">
         <v>361</v>
       </c>
@@ -5582,8 +5579,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="41"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="21" t="s">
         <v>366</v>
       </c>
@@ -5595,8 +5592,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="41"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="21" t="s">
         <v>372</v>
       </c>
@@ -5608,8 +5605,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="41"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="21" t="s">
         <v>385</v>
       </c>
@@ -5621,8 +5618,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="41"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="21" t="s">
         <v>384</v>
       </c>
@@ -5634,8 +5631,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="41"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="21" t="s">
         <v>374</v>
       </c>
@@ -5647,8 +5644,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="41"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="21" t="s">
         <v>387</v>
       </c>
@@ -5660,8 +5657,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="41"/>
-      <c r="B146" s="42"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="21" t="s">
         <v>412</v>
       </c>
@@ -5673,8 +5670,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="41"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="21" t="s">
         <v>415</v>
       </c>
@@ -5686,8 +5683,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="41"/>
-      <c r="B148" s="42"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="21" t="s">
         <v>432</v>
       </c>
@@ -5699,8 +5696,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="41"/>
-      <c r="B149" s="42"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="21" t="s">
         <v>440</v>
       </c>
@@ -5712,8 +5709,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="41"/>
-      <c r="B150" s="42"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="21" t="s">
         <v>444</v>
       </c>
@@ -5725,8 +5722,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="41"/>
-      <c r="B151" s="42"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="21" t="s">
         <v>447</v>
       </c>
@@ -5738,8 +5735,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="41"/>
-      <c r="B152" s="42"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="21" t="s">
         <v>364</v>
       </c>
@@ -5751,10 +5748,10 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="41" t="s">
+      <c r="A153" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="B153" s="42" t="s">
+      <c r="B153" s="37" t="s">
         <v>263</v>
       </c>
       <c r="C153" s="21" t="s">
@@ -5768,8 +5765,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="41"/>
-      <c r="B154" s="42"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="21" t="s">
         <v>312</v>
       </c>
@@ -5781,8 +5778,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="41"/>
-      <c r="B155" s="42"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="21" t="s">
         <v>303</v>
       </c>
@@ -5794,8 +5791,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="41"/>
-      <c r="B156" s="42"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="21" t="s">
         <v>311</v>
       </c>
@@ -5807,8 +5804,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="41"/>
-      <c r="B157" s="42"/>
+      <c r="A157" s="36"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="21" t="s">
         <v>308</v>
       </c>
@@ -5820,8 +5817,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="41"/>
-      <c r="B158" s="42"/>
+      <c r="A158" s="36"/>
+      <c r="B158" s="37"/>
       <c r="C158" s="21" t="s">
         <v>317</v>
       </c>
@@ -5833,8 +5830,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="41"/>
-      <c r="B159" s="42"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="37"/>
       <c r="C159" s="21" t="s">
         <v>456</v>
       </c>
@@ -5846,8 +5843,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="41"/>
-      <c r="B160" s="42"/>
+      <c r="A160" s="36"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="21" t="s">
         <v>315</v>
       </c>
@@ -5859,8 +5856,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="41"/>
-      <c r="B161" s="42"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="37"/>
       <c r="C161" s="21" t="s">
         <v>323</v>
       </c>
@@ -5872,8 +5869,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="41"/>
-      <c r="B162" s="42"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="37"/>
       <c r="C162" s="21" t="s">
         <v>324</v>
       </c>
@@ -5885,8 +5882,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="41"/>
-      <c r="B163" s="42"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="21" t="s">
         <v>322</v>
       </c>
@@ -5898,8 +5895,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="41"/>
-      <c r="B164" s="42"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="21" t="s">
         <v>313</v>
       </c>
@@ -5911,8 +5908,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="41"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="21" t="s">
         <v>334</v>
       </c>
@@ -5924,8 +5921,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="41"/>
-      <c r="B166" s="42"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="21" t="s">
         <v>335</v>
       </c>
@@ -5937,8 +5934,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="41"/>
-      <c r="B167" s="42"/>
+      <c r="A167" s="36"/>
+      <c r="B167" s="37"/>
       <c r="C167" s="21" t="s">
         <v>339</v>
       </c>
@@ -5950,8 +5947,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="41"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="21" t="s">
         <v>342</v>
       </c>
@@ -5963,8 +5960,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="41"/>
-      <c r="B169" s="42"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="21" t="s">
         <v>348</v>
       </c>
@@ -5976,8 +5973,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="41"/>
-      <c r="B170" s="42"/>
+      <c r="A170" s="36"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="21" t="s">
         <v>340</v>
       </c>
@@ -5989,8 +5986,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="41"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="36"/>
+      <c r="B171" s="37"/>
       <c r="C171" s="21" t="s">
         <v>349</v>
       </c>
@@ -6002,8 +5999,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="41"/>
-      <c r="B172" s="42"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="21" t="s">
         <v>333</v>
       </c>
@@ -6015,8 +6012,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="41"/>
-      <c r="B173" s="42"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="37"/>
       <c r="C173" s="21" t="s">
         <v>362</v>
       </c>
@@ -6028,8 +6025,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="41"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="36"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="21" t="s">
         <v>370</v>
       </c>
@@ -6041,8 +6038,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="41"/>
-      <c r="B175" s="42"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="21" t="s">
         <v>369</v>
       </c>
@@ -6054,8 +6051,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="41"/>
-      <c r="B176" s="42"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="37"/>
       <c r="C176" s="21" t="s">
         <v>375</v>
       </c>
@@ -6067,8 +6064,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="41"/>
-      <c r="B177" s="42"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="21" t="s">
         <v>379</v>
       </c>
@@ -6080,8 +6077,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="41"/>
-      <c r="B178" s="42"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="21" t="s">
         <v>389</v>
       </c>
@@ -6093,8 +6090,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="41"/>
-      <c r="B179" s="42"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="21" t="s">
         <v>381</v>
       </c>
@@ -6106,8 +6103,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="41"/>
-      <c r="B180" s="42"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="21" t="s">
         <v>382</v>
       </c>
@@ -6119,8 +6116,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="41"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="21" t="s">
         <v>376</v>
       </c>
@@ -6132,8 +6129,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="41"/>
-      <c r="B182" s="42"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="21" t="s">
         <v>391</v>
       </c>
@@ -6145,8 +6142,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="41"/>
-      <c r="B183" s="42"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="21" t="s">
         <v>397</v>
       </c>
@@ -6158,8 +6155,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="41"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="36"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="21" t="s">
         <v>398</v>
       </c>
@@ -6171,8 +6168,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="41"/>
-      <c r="B185" s="42"/>
+      <c r="A185" s="36"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="21" t="s">
         <v>410</v>
       </c>
@@ -6184,8 +6181,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="41"/>
-      <c r="B186" s="42"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="21" t="s">
         <v>428</v>
       </c>
@@ -6197,8 +6194,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="41"/>
-      <c r="B187" s="42"/>
+      <c r="A187" s="36"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="21" t="s">
         <v>414</v>
       </c>
@@ -6210,8 +6207,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="41"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="21" t="s">
         <v>417</v>
       </c>
@@ -6223,8 +6220,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="41"/>
-      <c r="B189" s="42"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="21" t="s">
         <v>421</v>
       </c>
@@ -6236,8 +6233,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="41"/>
-      <c r="B190" s="42"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="21" t="s">
         <v>422</v>
       </c>
@@ -6249,8 +6246,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="41"/>
-      <c r="B191" s="42"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="21" t="s">
         <v>459</v>
       </c>
@@ -6262,8 +6259,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="41"/>
-      <c r="B192" s="42"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="21" t="s">
         <v>430</v>
       </c>
@@ -6275,8 +6272,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="41"/>
-      <c r="B193" s="42"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="37"/>
       <c r="C193" s="21" t="s">
         <v>416</v>
       </c>
@@ -6288,8 +6285,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="41"/>
-      <c r="B194" s="42"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="21" t="s">
         <v>318</v>
       </c>
@@ -6301,8 +6298,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="41"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="37"/>
       <c r="C195" s="21" t="s">
         <v>436</v>
       </c>
@@ -6314,8 +6311,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="41"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="37"/>
       <c r="C196" s="21" t="s">
         <v>433</v>
       </c>
@@ -6327,8 +6324,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="41"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="36"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="21" t="s">
         <v>443</v>
       </c>
@@ -6340,8 +6337,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="41"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="36"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="21" t="s">
         <v>454</v>
       </c>
@@ -6353,8 +6350,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="41"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="36"/>
+      <c r="B199" s="37"/>
       <c r="C199" s="21" t="s">
         <v>455</v>
       </c>
@@ -6366,10 +6363,10 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="41" t="s">
+      <c r="A200" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="B200" s="42" t="s">
+      <c r="B200" s="37" t="s">
         <v>265</v>
       </c>
       <c r="C200" s="21" t="s">
@@ -6383,8 +6380,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="41"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="36"/>
+      <c r="B201" s="37"/>
       <c r="C201" s="21" t="s">
         <v>298</v>
       </c>
@@ -6396,8 +6393,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="41"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="36"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="21" t="s">
         <v>327</v>
       </c>
@@ -6409,8 +6406,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="41"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="36"/>
+      <c r="B203" s="37"/>
       <c r="C203" s="21" t="s">
         <v>282</v>
       </c>
@@ -6422,8 +6419,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="41"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="36"/>
+      <c r="B204" s="37"/>
       <c r="C204" s="21" t="s">
         <v>331</v>
       </c>
@@ -6435,8 +6432,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="41"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="37"/>
       <c r="C205" s="21" t="s">
         <v>355</v>
       </c>
@@ -6448,8 +6445,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="41"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="37"/>
       <c r="C206" s="21" t="s">
         <v>356</v>
       </c>
@@ -6461,8 +6458,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="41"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="37"/>
       <c r="C207" s="21" t="s">
         <v>358</v>
       </c>
@@ -6474,8 +6471,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="41"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="36"/>
+      <c r="B208" s="37"/>
       <c r="C208" s="21" t="s">
         <v>360</v>
       </c>
@@ -6487,8 +6484,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="41"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="36"/>
+      <c r="B209" s="37"/>
       <c r="C209" s="21" t="s">
         <v>365</v>
       </c>
@@ -6500,8 +6497,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="41"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="36"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="21" t="s">
         <v>368</v>
       </c>
@@ -6513,8 +6510,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="41"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="21" t="s">
         <v>371</v>
       </c>
@@ -6526,8 +6523,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="41"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="36"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="21" t="s">
         <v>388</v>
       </c>
@@ -6539,8 +6536,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="41"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="36"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="21" t="s">
         <v>400</v>
       </c>
@@ -6552,8 +6549,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="41"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="36"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="21" t="s">
         <v>452</v>
       </c>
@@ -6565,8 +6562,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="41"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="36"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="21" t="s">
         <v>409</v>
       </c>
@@ -6578,8 +6575,8 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="41"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="36"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="21" t="s">
         <v>413</v>
       </c>
@@ -6591,8 +6588,8 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="41"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="21" t="s">
         <v>431</v>
       </c>
@@ -6604,8 +6601,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="41"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="36"/>
+      <c r="B218" s="37"/>
       <c r="C218" s="21" t="s">
         <v>439</v>
       </c>
@@ -6617,8 +6614,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="44"/>
-      <c r="B219" s="43"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="38"/>
       <c r="C219" s="25" t="s">
         <v>453</v>
       </c>
@@ -6631,18 +6628,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A46:A84"/>
+    <mergeCell ref="A85:A125"/>
+    <mergeCell ref="B85:B125"/>
+    <mergeCell ref="B46:B84"/>
     <mergeCell ref="A126:A152"/>
     <mergeCell ref="B126:B152"/>
     <mergeCell ref="A153:A199"/>
     <mergeCell ref="B153:B199"/>
     <mergeCell ref="B200:B219"/>
     <mergeCell ref="A200:A219"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A46:A84"/>
-    <mergeCell ref="A85:A125"/>
-    <mergeCell ref="B85:B125"/>
-    <mergeCell ref="B46:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Data_S3.xlsx
+++ b/Data_S3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CAB88-E097-4D96-B764-03B03F5AA0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6BD59-5DEA-4D57-BCAA-EBE6DE1065C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="502">
   <si>
     <t>Index</t>
   </si>
@@ -1462,12 +1462,6 @@
     </r>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Manure</t>
-  </si>
-  <si>
     <t>Textile</t>
   </si>
   <si>
@@ -1480,9 +1474,6 @@
     <t>Glass</t>
   </si>
   <si>
-    <t>Ashes</t>
-  </si>
-  <si>
     <t>Steel</t>
   </si>
   <si>
@@ -1501,21 +1492,6 @@
     <t>non-ferrous metals</t>
   </si>
   <si>
-    <t>Construction materials and mining waste (excl. unused mining material)</t>
-  </si>
-  <si>
-    <t>Oils and hazardous materials</t>
-  </si>
-  <si>
-    <t>Sewage</t>
-  </si>
-  <si>
-    <t>Mining waste</t>
-  </si>
-  <si>
-    <t>Unused waste</t>
-  </si>
-  <si>
     <t>industry_class</t>
   </si>
   <si>
@@ -1525,9 +1501,6 @@
     <t>fd_class</t>
   </si>
   <si>
-    <t xml:space="preserve">List of 19 material types in stock additions extension from EXIOBASE MR-HIOT </t>
-  </si>
-  <si>
     <t xml:space="preserve">List of 6 final demand categories from EXIOBASE MR-HIOT </t>
   </si>
   <si>
@@ -1564,8 +1537,11 @@
     <t>Material in stock addiotions extension EXIOBASE Classification</t>
   </si>
   <si>
+    <t>This supporting information provides the 5 spreadsheets that provide the classification of  countries and regions, economic activities, final demand, and material in stock additions extension from EXIOBASE MR-HIOT v3.3.18</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2020.) Global distribution of material inflows to in-use stocks in 2011 and its implications for a circularity transition. </t>
+      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2021) Global distribution of material inflows to in-use stocks in 2011 and its implications for a circularity transition. </t>
     </r>
     <r>
       <rPr>
@@ -1579,7 +1555,10 @@
     </r>
   </si>
   <si>
-    <t>This supporting information provides the 5 spreadsheets that provide the classification of  countries and regions, economic activities, final demand, and material in stock additions extension from EXIOBASE MR-HIOT v3.3.18</t>
+    <t>Non-metallic minerals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of 12 material types in stock additions extension from EXIOBASE MR-HIOT </t>
   </si>
 </sst>
 </file>
@@ -1967,18 +1946,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1992,6 +1959,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2534,9 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2594,7 +2571,7 @@
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -2637,7 +2614,7 @@
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2702,7 +2679,7 @@
         <v>471</v>
       </c>
       <c r="C12" s="7">
-        <v>43872</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2715,7 +2692,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
@@ -2727,7 +2704,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>468</v>
@@ -2738,7 +2715,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
@@ -2749,24 +2726,24 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3586,15 +3563,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4345,10 +4322,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="42" t="s">
         <v>257</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -4362,8 +4339,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="21" t="s">
         <v>284</v>
       </c>
@@ -4375,8 +4352,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="21" t="s">
         <v>299</v>
       </c>
@@ -4388,8 +4365,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="21" t="s">
         <v>310</v>
       </c>
@@ -4401,8 +4378,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="21" t="s">
         <v>305</v>
       </c>
@@ -4414,8 +4391,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="21" t="s">
         <v>337</v>
       </c>
@@ -4427,8 +4404,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="21" t="s">
         <v>383</v>
       </c>
@@ -4440,8 +4417,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="21" t="s">
         <v>346</v>
       </c>
@@ -4453,8 +4430,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="21" t="s">
         <v>353</v>
       </c>
@@ -4466,8 +4443,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="21" t="s">
         <v>314</v>
       </c>
@@ -4479,8 +4456,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="21" t="s">
         <v>363</v>
       </c>
@@ -4492,8 +4469,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="21" t="s">
         <v>367</v>
       </c>
@@ -4505,8 +4482,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="21" t="s">
         <v>423</v>
       </c>
@@ -4518,8 +4495,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="21" t="s">
         <v>373</v>
       </c>
@@ -4531,8 +4508,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="21" t="s">
         <v>378</v>
       </c>
@@ -4544,8 +4521,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="21" t="s">
         <v>380</v>
       </c>
@@ -4557,8 +4534,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="21" t="s">
         <v>390</v>
       </c>
@@ -4570,8 +4547,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="21" t="s">
         <v>386</v>
       </c>
@@ -4583,8 +4560,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="21" t="s">
         <v>399</v>
       </c>
@@ -4596,8 +4573,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="21" t="s">
         <v>377</v>
       </c>
@@ -4609,8 +4586,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="21" t="s">
         <v>394</v>
       </c>
@@ -4622,8 +4599,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="21" t="s">
         <v>393</v>
       </c>
@@ -4635,8 +4612,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="21" t="s">
         <v>392</v>
       </c>
@@ -4648,8 +4625,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="21" t="s">
         <v>395</v>
       </c>
@@ -4661,8 +4638,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="21" t="s">
         <v>401</v>
       </c>
@@ -4674,8 +4651,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="21" t="s">
         <v>407</v>
       </c>
@@ -4687,8 +4664,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="21" t="s">
         <v>402</v>
       </c>
@@ -4700,8 +4677,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="21" t="s">
         <v>404</v>
       </c>
@@ -4713,8 +4690,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="21" t="s">
         <v>458</v>
       </c>
@@ -4726,8 +4703,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="21" t="s">
         <v>338</v>
       </c>
@@ -4739,8 +4716,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="21" t="s">
         <v>418</v>
       </c>
@@ -4752,8 +4729,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="21" t="s">
         <v>420</v>
       </c>
@@ -4765,8 +4742,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="21" t="s">
         <v>434</v>
       </c>
@@ -4778,8 +4755,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="21" t="s">
         <v>435</v>
       </c>
@@ -4791,8 +4768,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="21" t="s">
         <v>437</v>
       </c>
@@ -4804,8 +4781,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="21" t="s">
         <v>442</v>
       </c>
@@ -4817,8 +4794,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="21" t="s">
         <v>450</v>
       </c>
@@ -4830,8 +4807,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="36"/>
-      <c r="B83" s="37"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="21" t="s">
         <v>448</v>
       </c>
@@ -4843,8 +4820,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="21" t="s">
         <v>411</v>
       </c>
@@ -4856,10 +4833,10 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="42" t="s">
         <v>259</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -4873,8 +4850,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="21" t="s">
         <v>293</v>
       </c>
@@ -4886,8 +4863,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="21" t="s">
         <v>291</v>
       </c>
@@ -4899,8 +4876,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="21" t="s">
         <v>297</v>
       </c>
@@ -4912,8 +4889,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="21" t="s">
         <v>302</v>
       </c>
@@ -4925,8 +4902,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="21" t="s">
         <v>304</v>
       </c>
@@ -4938,8 +4915,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="21" t="s">
         <v>306</v>
       </c>
@@ -4951,8 +4928,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="37"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="21" t="s">
         <v>300</v>
       </c>
@@ -4964,8 +4941,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="21" t="s">
         <v>320</v>
       </c>
@@ -4977,8 +4954,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="21" t="s">
         <v>321</v>
       </c>
@@ -4990,8 +4967,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="21" t="s">
         <v>325</v>
       </c>
@@ -5003,8 +4980,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="21" t="s">
         <v>326</v>
       </c>
@@ -5016,8 +4993,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="36"/>
-      <c r="B97" s="37"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="21" t="s">
         <v>457</v>
       </c>
@@ -5029,8 +5006,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="36"/>
-      <c r="B98" s="37"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="21" t="s">
         <v>316</v>
       </c>
@@ -5042,8 +5019,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="36"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="21" t="s">
         <v>328</v>
       </c>
@@ -5055,8 +5032,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="21" t="s">
         <v>329</v>
       </c>
@@ -5068,8 +5045,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="36"/>
-      <c r="B101" s="37"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="21" t="s">
         <v>330</v>
       </c>
@@ -5081,8 +5058,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="36"/>
-      <c r="B102" s="37"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="21" t="s">
         <v>345</v>
       </c>
@@ -5094,8 +5071,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="21" t="s">
         <v>347</v>
       </c>
@@ -5107,8 +5084,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="36"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="21" t="s">
         <v>350</v>
       </c>
@@ -5120,8 +5097,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="21" t="s">
         <v>352</v>
       </c>
@@ -5133,8 +5110,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="36"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="21" t="s">
         <v>351</v>
       </c>
@@ -5146,8 +5123,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="36"/>
-      <c r="B107" s="37"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="21" t="s">
         <v>359</v>
       </c>
@@ -5159,8 +5136,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="36"/>
-      <c r="B108" s="37"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="21" t="s">
         <v>424</v>
       </c>
@@ -5172,8 +5149,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="36"/>
-      <c r="B109" s="37"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="21" t="s">
         <v>425</v>
       </c>
@@ -5185,8 +5162,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="36"/>
-      <c r="B110" s="37"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="21" t="s">
         <v>426</v>
       </c>
@@ -5198,8 +5175,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
-      <c r="B111" s="37"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="21" t="s">
         <v>396</v>
       </c>
@@ -5211,8 +5188,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="37"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="21" t="s">
         <v>403</v>
       </c>
@@ -5224,8 +5201,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="37"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="21" t="s">
         <v>406</v>
       </c>
@@ -5237,8 +5214,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="21" t="s">
         <v>408</v>
       </c>
@@ -5250,8 +5227,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="37"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="21" t="s">
         <v>405</v>
       </c>
@@ -5263,8 +5240,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="37"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="21" t="s">
         <v>332</v>
       </c>
@@ -5276,8 +5253,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="37"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="21" t="s">
         <v>429</v>
       </c>
@@ -5289,8 +5266,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="37"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="21" t="s">
         <v>419</v>
       </c>
@@ -5302,8 +5279,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="37"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="21" t="s">
         <v>441</v>
       </c>
@@ -5315,8 +5292,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
-      <c r="B120" s="37"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="21" t="s">
         <v>438</v>
       </c>
@@ -5328,8 +5305,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="37"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="21" t="s">
         <v>446</v>
       </c>
@@ -5341,8 +5318,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
-      <c r="B122" s="37"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="21" t="s">
         <v>427</v>
       </c>
@@ -5354,8 +5331,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="36"/>
-      <c r="B123" s="37"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="21" t="s">
         <v>449</v>
       </c>
@@ -5367,8 +5344,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="36"/>
-      <c r="B124" s="37"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="21" t="s">
         <v>309</v>
       </c>
@@ -5380,8 +5357,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="36"/>
-      <c r="B125" s="37"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="21" t="s">
         <v>451</v>
       </c>
@@ -5393,10 +5370,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="36" t="s">
+      <c r="A126" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="42" t="s">
         <v>261</v>
       </c>
       <c r="C126" s="21" t="s">
@@ -5410,8 +5387,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="36"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="41"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="21" t="s">
         <v>286</v>
       </c>
@@ -5423,8 +5400,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="36"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="21" t="s">
         <v>294</v>
       </c>
@@ -5436,8 +5413,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="36"/>
-      <c r="B129" s="37"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="21" t="s">
         <v>296</v>
       </c>
@@ -5449,8 +5426,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="36"/>
-      <c r="B130" s="37"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="21" t="s">
         <v>307</v>
       </c>
@@ -5462,8 +5439,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="36"/>
-      <c r="B131" s="37"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="21" t="s">
         <v>301</v>
       </c>
@@ -5475,8 +5452,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="36"/>
-      <c r="B132" s="37"/>
+      <c r="A132" s="41"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="21" t="s">
         <v>319</v>
       </c>
@@ -5488,8 +5465,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="36"/>
-      <c r="B133" s="37"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="21" t="s">
         <v>336</v>
       </c>
@@ -5501,8 +5478,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
-      <c r="B134" s="37"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="21" t="s">
         <v>341</v>
       </c>
@@ -5514,8 +5491,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
-      <c r="B135" s="37"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="21" t="s">
         <v>343</v>
       </c>
@@ -5527,8 +5504,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="36"/>
-      <c r="B136" s="37"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="21" t="s">
         <v>344</v>
       </c>
@@ -5540,8 +5517,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="36"/>
-      <c r="B137" s="37"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="21" t="s">
         <v>357</v>
       </c>
@@ -5553,8 +5530,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="36"/>
-      <c r="B138" s="37"/>
+      <c r="A138" s="41"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="21" t="s">
         <v>354</v>
       </c>
@@ -5566,8 +5543,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="36"/>
-      <c r="B139" s="37"/>
+      <c r="A139" s="41"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="21" t="s">
         <v>361</v>
       </c>
@@ -5579,8 +5556,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="36"/>
-      <c r="B140" s="37"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="21" t="s">
         <v>366</v>
       </c>
@@ -5592,8 +5569,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="36"/>
-      <c r="B141" s="37"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="21" t="s">
         <v>372</v>
       </c>
@@ -5605,8 +5582,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="36"/>
-      <c r="B142" s="37"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="21" t="s">
         <v>385</v>
       </c>
@@ -5618,8 +5595,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="36"/>
-      <c r="B143" s="37"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="21" t="s">
         <v>384</v>
       </c>
@@ -5631,8 +5608,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="36"/>
-      <c r="B144" s="37"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="21" t="s">
         <v>374</v>
       </c>
@@ -5644,8 +5621,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="36"/>
-      <c r="B145" s="37"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="21" t="s">
         <v>387</v>
       </c>
@@ -5657,8 +5634,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="36"/>
-      <c r="B146" s="37"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="21" t="s">
         <v>412</v>
       </c>
@@ -5670,8 +5647,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="36"/>
-      <c r="B147" s="37"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="21" t="s">
         <v>415</v>
       </c>
@@ -5683,8 +5660,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="36"/>
-      <c r="B148" s="37"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="21" t="s">
         <v>432</v>
       </c>
@@ -5696,8 +5673,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="36"/>
-      <c r="B149" s="37"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="42"/>
       <c r="C149" s="21" t="s">
         <v>440</v>
       </c>
@@ -5709,8 +5686,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="36"/>
-      <c r="B150" s="37"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="21" t="s">
         <v>444</v>
       </c>
@@ -5722,8 +5699,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="36"/>
-      <c r="B151" s="37"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="21" t="s">
         <v>447</v>
       </c>
@@ -5735,8 +5712,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="36"/>
-      <c r="B152" s="37"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="21" t="s">
         <v>364</v>
       </c>
@@ -5748,10 +5725,10 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="36" t="s">
+      <c r="A153" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="42" t="s">
         <v>263</v>
       </c>
       <c r="C153" s="21" t="s">
@@ -5765,8 +5742,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="36"/>
-      <c r="B154" s="37"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="21" t="s">
         <v>312</v>
       </c>
@@ -5778,8 +5755,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
-      <c r="B155" s="37"/>
+      <c r="A155" s="41"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="21" t="s">
         <v>303</v>
       </c>
@@ -5791,8 +5768,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="21" t="s">
         <v>311</v>
       </c>
@@ -5804,8 +5781,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="36"/>
-      <c r="B157" s="37"/>
+      <c r="A157" s="41"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="21" t="s">
         <v>308</v>
       </c>
@@ -5817,8 +5794,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
-      <c r="B158" s="37"/>
+      <c r="A158" s="41"/>
+      <c r="B158" s="42"/>
       <c r="C158" s="21" t="s">
         <v>317</v>
       </c>
@@ -5830,8 +5807,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
-      <c r="B159" s="37"/>
+      <c r="A159" s="41"/>
+      <c r="B159" s="42"/>
       <c r="C159" s="21" t="s">
         <v>456</v>
       </c>
@@ -5843,8 +5820,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="36"/>
-      <c r="B160" s="37"/>
+      <c r="A160" s="41"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="21" t="s">
         <v>315</v>
       </c>
@@ -5856,8 +5833,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="36"/>
-      <c r="B161" s="37"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="42"/>
       <c r="C161" s="21" t="s">
         <v>323</v>
       </c>
@@ -5869,8 +5846,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="36"/>
-      <c r="B162" s="37"/>
+      <c r="A162" s="41"/>
+      <c r="B162" s="42"/>
       <c r="C162" s="21" t="s">
         <v>324</v>
       </c>
@@ -5882,8 +5859,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="36"/>
-      <c r="B163" s="37"/>
+      <c r="A163" s="41"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="21" t="s">
         <v>322</v>
       </c>
@@ -5895,8 +5872,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
-      <c r="B164" s="37"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="42"/>
       <c r="C164" s="21" t="s">
         <v>313</v>
       </c>
@@ -5908,8 +5885,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
-      <c r="B165" s="37"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="42"/>
       <c r="C165" s="21" t="s">
         <v>334</v>
       </c>
@@ -5921,8 +5898,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
-      <c r="B166" s="37"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="42"/>
       <c r="C166" s="21" t="s">
         <v>335</v>
       </c>
@@ -5934,8 +5911,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="36"/>
-      <c r="B167" s="37"/>
+      <c r="A167" s="41"/>
+      <c r="B167" s="42"/>
       <c r="C167" s="21" t="s">
         <v>339</v>
       </c>
@@ -5947,8 +5924,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="36"/>
-      <c r="B168" s="37"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="21" t="s">
         <v>342</v>
       </c>
@@ -5960,8 +5937,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="36"/>
-      <c r="B169" s="37"/>
+      <c r="A169" s="41"/>
+      <c r="B169" s="42"/>
       <c r="C169" s="21" t="s">
         <v>348</v>
       </c>
@@ -5973,8 +5950,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="36"/>
-      <c r="B170" s="37"/>
+      <c r="A170" s="41"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="21" t="s">
         <v>340</v>
       </c>
@@ -5986,8 +5963,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="36"/>
-      <c r="B171" s="37"/>
+      <c r="A171" s="41"/>
+      <c r="B171" s="42"/>
       <c r="C171" s="21" t="s">
         <v>349</v>
       </c>
@@ -5999,8 +5976,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="36"/>
-      <c r="B172" s="37"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="21" t="s">
         <v>333</v>
       </c>
@@ -6012,8 +5989,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="36"/>
-      <c r="B173" s="37"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="21" t="s">
         <v>362</v>
       </c>
@@ -6025,8 +6002,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="36"/>
-      <c r="B174" s="37"/>
+      <c r="A174" s="41"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="21" t="s">
         <v>370</v>
       </c>
@@ -6038,8 +6015,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="36"/>
-      <c r="B175" s="37"/>
+      <c r="A175" s="41"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="21" t="s">
         <v>369</v>
       </c>
@@ -6051,8 +6028,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="36"/>
-      <c r="B176" s="37"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="21" t="s">
         <v>375</v>
       </c>
@@ -6064,8 +6041,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="36"/>
-      <c r="B177" s="37"/>
+      <c r="A177" s="41"/>
+      <c r="B177" s="42"/>
       <c r="C177" s="21" t="s">
         <v>379</v>
       </c>
@@ -6077,8 +6054,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="36"/>
-      <c r="B178" s="37"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="42"/>
       <c r="C178" s="21" t="s">
         <v>389</v>
       </c>
@@ -6090,8 +6067,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="36"/>
-      <c r="B179" s="37"/>
+      <c r="A179" s="41"/>
+      <c r="B179" s="42"/>
       <c r="C179" s="21" t="s">
         <v>381</v>
       </c>
@@ -6103,8 +6080,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="36"/>
-      <c r="B180" s="37"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="42"/>
       <c r="C180" s="21" t="s">
         <v>382</v>
       </c>
@@ -6116,8 +6093,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="36"/>
-      <c r="B181" s="37"/>
+      <c r="A181" s="41"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="21" t="s">
         <v>376</v>
       </c>
@@ -6129,8 +6106,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="36"/>
-      <c r="B182" s="37"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="42"/>
       <c r="C182" s="21" t="s">
         <v>391</v>
       </c>
@@ -6142,8 +6119,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="36"/>
-      <c r="B183" s="37"/>
+      <c r="A183" s="41"/>
+      <c r="B183" s="42"/>
       <c r="C183" s="21" t="s">
         <v>397</v>
       </c>
@@ -6155,8 +6132,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="36"/>
-      <c r="B184" s="37"/>
+      <c r="A184" s="41"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="21" t="s">
         <v>398</v>
       </c>
@@ -6168,8 +6145,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="36"/>
-      <c r="B185" s="37"/>
+      <c r="A185" s="41"/>
+      <c r="B185" s="42"/>
       <c r="C185" s="21" t="s">
         <v>410</v>
       </c>
@@ -6181,8 +6158,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="36"/>
-      <c r="B186" s="37"/>
+      <c r="A186" s="41"/>
+      <c r="B186" s="42"/>
       <c r="C186" s="21" t="s">
         <v>428</v>
       </c>
@@ -6194,8 +6171,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="36"/>
-      <c r="B187" s="37"/>
+      <c r="A187" s="41"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="21" t="s">
         <v>414</v>
       </c>
@@ -6207,8 +6184,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="36"/>
-      <c r="B188" s="37"/>
+      <c r="A188" s="41"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="21" t="s">
         <v>417</v>
       </c>
@@ -6220,8 +6197,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="36"/>
-      <c r="B189" s="37"/>
+      <c r="A189" s="41"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="21" t="s">
         <v>421</v>
       </c>
@@ -6233,8 +6210,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
+      <c r="A190" s="41"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="21" t="s">
         <v>422</v>
       </c>
@@ -6246,8 +6223,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="36"/>
-      <c r="B191" s="37"/>
+      <c r="A191" s="41"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="21" t="s">
         <v>459</v>
       </c>
@@ -6259,8 +6236,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="36"/>
-      <c r="B192" s="37"/>
+      <c r="A192" s="41"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="21" t="s">
         <v>430</v>
       </c>
@@ -6272,8 +6249,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="36"/>
-      <c r="B193" s="37"/>
+      <c r="A193" s="41"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="21" t="s">
         <v>416</v>
       </c>
@@ -6285,8 +6262,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="36"/>
-      <c r="B194" s="37"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="21" t="s">
         <v>318</v>
       </c>
@@ -6298,8 +6275,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="36"/>
-      <c r="B195" s="37"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="21" t="s">
         <v>436</v>
       </c>
@@ -6311,8 +6288,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="36"/>
-      <c r="B196" s="37"/>
+      <c r="A196" s="41"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="21" t="s">
         <v>433</v>
       </c>
@@ -6324,8 +6301,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="36"/>
-      <c r="B197" s="37"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="21" t="s">
         <v>443</v>
       </c>
@@ -6337,8 +6314,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="36"/>
-      <c r="B198" s="37"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="21" t="s">
         <v>454</v>
       </c>
@@ -6350,8 +6327,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="36"/>
-      <c r="B199" s="37"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="21" t="s">
         <v>455</v>
       </c>
@@ -6363,10 +6340,10 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="36" t="s">
+      <c r="A200" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B200" s="37" t="s">
+      <c r="B200" s="42" t="s">
         <v>265</v>
       </c>
       <c r="C200" s="21" t="s">
@@ -6380,8 +6357,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="36"/>
-      <c r="B201" s="37"/>
+      <c r="A201" s="41"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="21" t="s">
         <v>298</v>
       </c>
@@ -6393,8 +6370,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="36"/>
-      <c r="B202" s="37"/>
+      <c r="A202" s="41"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="21" t="s">
         <v>327</v>
       </c>
@@ -6406,8 +6383,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="36"/>
-      <c r="B203" s="37"/>
+      <c r="A203" s="41"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="21" t="s">
         <v>282</v>
       </c>
@@ -6419,8 +6396,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="36"/>
-      <c r="B204" s="37"/>
+      <c r="A204" s="41"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="21" t="s">
         <v>331</v>
       </c>
@@ -6432,8 +6409,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="36"/>
-      <c r="B205" s="37"/>
+      <c r="A205" s="41"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="21" t="s">
         <v>355</v>
       </c>
@@ -6445,8 +6422,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="36"/>
-      <c r="B206" s="37"/>
+      <c r="A206" s="41"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="21" t="s">
         <v>356</v>
       </c>
@@ -6458,8 +6435,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="36"/>
-      <c r="B207" s="37"/>
+      <c r="A207" s="41"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="21" t="s">
         <v>358</v>
       </c>
@@ -6471,8 +6448,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="36"/>
-      <c r="B208" s="37"/>
+      <c r="A208" s="41"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="21" t="s">
         <v>360</v>
       </c>
@@ -6484,8 +6461,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="36"/>
-      <c r="B209" s="37"/>
+      <c r="A209" s="41"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="21" t="s">
         <v>365</v>
       </c>
@@ -6497,8 +6474,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="36"/>
-      <c r="B210" s="37"/>
+      <c r="A210" s="41"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="21" t="s">
         <v>368</v>
       </c>
@@ -6510,8 +6487,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="36"/>
-      <c r="B211" s="37"/>
+      <c r="A211" s="41"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="21" t="s">
         <v>371</v>
       </c>
@@ -6523,8 +6500,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="36"/>
-      <c r="B212" s="37"/>
+      <c r="A212" s="41"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="21" t="s">
         <v>388</v>
       </c>
@@ -6536,8 +6513,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="36"/>
-      <c r="B213" s="37"/>
+      <c r="A213" s="41"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="21" t="s">
         <v>400</v>
       </c>
@@ -6549,8 +6526,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="36"/>
-      <c r="B214" s="37"/>
+      <c r="A214" s="41"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="21" t="s">
         <v>452</v>
       </c>
@@ -6562,8 +6539,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="36"/>
-      <c r="B215" s="37"/>
+      <c r="A215" s="41"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="21" t="s">
         <v>409</v>
       </c>
@@ -6575,8 +6552,8 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="36"/>
-      <c r="B216" s="37"/>
+      <c r="A216" s="41"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="21" t="s">
         <v>413</v>
       </c>
@@ -6588,8 +6565,8 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="36"/>
-      <c r="B217" s="37"/>
+      <c r="A217" s="41"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="21" t="s">
         <v>431</v>
       </c>
@@ -6601,8 +6578,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="36"/>
-      <c r="B218" s="37"/>
+      <c r="A218" s="41"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="21" t="s">
         <v>439</v>
       </c>
@@ -6614,8 +6591,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="39"/>
-      <c r="B219" s="38"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="43"/>
       <c r="C219" s="25" t="s">
         <v>453</v>
       </c>
@@ -6628,18 +6605,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A126:A152"/>
+    <mergeCell ref="B126:B152"/>
+    <mergeCell ref="A153:A199"/>
+    <mergeCell ref="B153:B199"/>
+    <mergeCell ref="B200:B219"/>
+    <mergeCell ref="A200:A219"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A46:A84"/>
     <mergeCell ref="A85:A125"/>
     <mergeCell ref="B85:B125"/>
     <mergeCell ref="B46:B84"/>
-    <mergeCell ref="A126:A152"/>
-    <mergeCell ref="B126:B152"/>
-    <mergeCell ref="A153:A199"/>
-    <mergeCell ref="B153:B199"/>
-    <mergeCell ref="B200:B219"/>
-    <mergeCell ref="A200:A219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6663,7 +6640,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8000,7 +7977,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8008,7 +7985,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B2" s="28">
         <v>0</v>
@@ -8016,7 +7993,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B3" s="28">
         <v>1</v>
@@ -8024,7 +8001,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B4" s="28">
         <v>2</v>
@@ -8032,7 +8009,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B5" s="28">
         <v>3</v>
@@ -8040,7 +8017,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B6" s="28">
         <v>4</v>
@@ -8048,7 +8025,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B7" s="28">
         <v>5</v>
@@ -8061,9 +8038,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62416F7-40DD-4242-9038-56C0A259935A}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8072,7 +8051,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8083,7 +8062,7 @@
         <v>473</v>
       </c>
       <c r="B2" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -8091,31 +8070,31 @@
         <v>474</v>
       </c>
       <c r="B3" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>475</v>
+        <v>3</v>
       </c>
       <c r="B4" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B5" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
-        <v>3</v>
+        <v>476</v>
       </c>
       <c r="B6" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -8123,7 +8102,7 @@
         <v>477</v>
       </c>
       <c r="B7" s="28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -8131,7 +8110,7 @@
         <v>478</v>
       </c>
       <c r="B8" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -8139,7 +8118,7 @@
         <v>479</v>
       </c>
       <c r="B9" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -8147,7 +8126,7 @@
         <v>480</v>
       </c>
       <c r="B10" s="28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -8155,7 +8134,7 @@
         <v>481</v>
       </c>
       <c r="B11" s="28">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -8163,71 +8142,15 @@
         <v>482</v>
       </c>
       <c r="B12" s="28">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B13" s="28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="B14" s="28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="B15" s="28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="B16" s="28">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B17" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18" s="28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="B19" s="28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="B20" s="28">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
